--- a/test_data/collections-workbook.xlsx
+++ b/test_data/collections-workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pt/working/language-research-technology/ro-crate-excel/test_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moises/source/github/Language-Research-Technology/ro-crate-excel/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FD80E5-8236-8C45-9638-E98C4D07FAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605792DE-0B59-7841-BDA4-D00FFAA0A5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="760" windowWidth="29280" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="760" windowWidth="29280" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RepositoryObject" sheetId="1" r:id="rId1"/>
@@ -187,9 +187,6 @@
     <t>ldac</t>
   </si>
   <si>
-    <t>http://purl.archive.org/language-data-commons/terms#</t>
-  </si>
-  <si>
     <t>object1/</t>
   </si>
   <si>
@@ -221,6 +218,9 @@
   </si>
   <si>
     <t>isType_PrimaryMaterial</t>
+  </si>
+  <si>
+    <t>http://w3id.org/ldac/terms#</t>
   </si>
 </sst>
 </file>
@@ -548,12 +548,12 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -577,7 +577,7 @@
   </sheetPr>
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="271" zoomScaleNormal="271" workbookViewId="0">
+    <sheetView zoomScale="271" zoomScaleNormal="271" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -600,10 +600,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -612,10 +612,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
@@ -648,7 +648,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B2," Interview Video"),"/", ""), "o", "O", 1)</f>
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>SUBSTITUTE(A3,".mp4",".csv")</f>
@@ -673,14 +673,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B3,"TRANSCRIPT"),"/", ""), "o", "O", 1)</f>
         <v>Object1TRANSCRIPT</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1" t="b">
         <v>1</v>
@@ -697,7 +697,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" ref="C4" si="0">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B4," Interview Video"),"/", ""), "o", "O", 1)</f>
@@ -707,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>SUBSTITUTE(A5,".mp4",".csv")</f>
@@ -722,14 +722,14 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" ref="C5" si="1">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B5,"TRANSCRIPT"),"/", ""), "o", "O", 1)</f>
         <v>Object2TRANSCRIPT</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="1" t="b">
         <v>1</v>
@@ -743,7 +743,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" ref="C6" si="2">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B6," Interview Video"),"/", ""), "o", "O", 1)</f>
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>SUBSTITUTE(A7,".mp4",".csv")</f>
@@ -765,17 +765,17 @@
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" ref="C7" si="3">SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B7,"TRANSCRIPT"),"/", ""), "o", "O", 1)</f>
         <v>Object3TRANSCRIPT</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>1</v>
@@ -794,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69AC1F7F-CF77-B44C-95BF-861206360925}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -813,7 +813,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -843,7 +843,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -863,7 +863,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
